--- a/columns.xlsx
+++ b/columns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magsihim_AI\Desktop\Project_Statbotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B735D44E-889A-44D0-948C-6576E9EE5041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADCF2B8-0190-4F92-AC5F-9CE6DA33D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t>עמודה</t>
   </si>
@@ -240,9 +241,6 @@
     <t>מספר הנקודות שקיבלה ברית מהעבירות של הברית היריבה</t>
   </si>
   <si>
-    <t>g206Penalty, g410Penalty, g418Penalty, g428Penalty</t>
-  </si>
-  <si>
     <t>סוגי עבירות מסויימים</t>
   </si>
   <si>
@@ -382,6 +380,12 @@
   </si>
   <si>
     <t>(נוצר למטרות נוחות)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g410Penalty, g418Penalty, g428Penalty</t>
+  </si>
+  <si>
+    <t>לאחד</t>
   </si>
 </sst>
 </file>
@@ -483,10 +487,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1061,285 +1065,291 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="4" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="B35" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="B36" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="B37" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" ht="56" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="6" t="s">
+    </row>
+    <row r="44" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="4" t="s">
+    </row>
+    <row r="45" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="6" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="4" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="6"/>
+      <c r="D47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="4" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>

--- a/columns.xlsx
+++ b/columns.xlsx
@@ -8,25 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magsihim_AI\Desktop\Project_Statbotics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADCF2B8-0190-4F92-AC5F-9CE6DA33D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344356CA-F589-4036-B961-1482549E46DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="221">
   <si>
     <t>עמודה</t>
   </si>
@@ -386,6 +397,309 @@
   </si>
   <si>
     <t>לאחד</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g410Penalty</t>
+  </si>
+  <si>
+    <t>g428Penalty</t>
+  </si>
+  <si>
+    <t>g418Penalty</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeA</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeB</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeC</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeD</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeE</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeF</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeG</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeH</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeI</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeJ</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeK</t>
+  </si>
+  <si>
+    <t>autoReef_botRow_nodeL</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeA</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeB</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeC</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeD</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeE</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeF</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeG</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeH</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeI</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeJ</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeK</t>
+  </si>
+  <si>
+    <t>autoReef_midRow_nodeL</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeA</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeB</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeC</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeD</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeE</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeF</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeG</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeH</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeI</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeJ</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeK</t>
+  </si>
+  <si>
+    <t>autoReef_topRow_nodeL</t>
+  </si>
+  <si>
+    <t>קומה תחתונה</t>
+  </si>
+  <si>
+    <t>פאה ספציפית</t>
+  </si>
+  <si>
+    <t>קומה אמצעית</t>
+  </si>
+  <si>
+    <t>קומה עליונה</t>
+  </si>
+  <si>
+    <t>ספירה כוללת</t>
+  </si>
+  <si>
+    <t>סכום כולל</t>
+  </si>
+  <si>
+    <t>קורלים אוטונומי</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>תוצאות</t>
+  </si>
+  <si>
+    <t>ניקוד</t>
+  </si>
+  <si>
+    <t>int 0-6</t>
+  </si>
+  <si>
+    <t>מידע קודם</t>
+  </si>
+  <si>
+    <t>int 0-2</t>
+  </si>
+  <si>
+    <t>int (categorial)</t>
+  </si>
+  <si>
+    <t>int 1-13</t>
+  </si>
+  <si>
+    <t>int 1-3</t>
+  </si>
+  <si>
+    <t>בונוסים</t>
+  </si>
+  <si>
+    <t>קומה 0</t>
+  </si>
+  <si>
+    <t>ניקוד כולל מהקורלים</t>
+  </si>
+  <si>
+    <t>ניקוד כולל מהאוטונומי</t>
+  </si>
+  <si>
+    <t>int 1|3</t>
+  </si>
+  <si>
+    <t>קו</t>
+  </si>
+  <si>
+    <t>אנדגיים</t>
+  </si>
+  <si>
+    <t>int 0-3</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>עבירות</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>אלג'י</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeA</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeB</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeC</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeD</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeE</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeF</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeG</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeI</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeJ</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeK</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeL</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeA</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeB</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeC</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeD</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeE</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeG</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeF</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeH</t>
+  </si>
+  <si>
+    <t>teleopReef_botRow_nodeH</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeI</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeJ</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeK</t>
+  </si>
+  <si>
+    <t>teleopReef_midRow_nodeL</t>
+  </si>
+  <si>
+    <t>teleopReef_topRow_nodeA</t>
+  </si>
+  <si>
+    <t>teleopReef_topRow_nodeB</t>
+  </si>
+  <si>
+    <t>teleopReef_topRow_nodeC</t>
+  </si>
+  <si>
+    <t>teleopReef_topRow_nodeD</t>
+  </si>
+  <si>
+    <t>teleopReef_topRow_nodeE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">קומה אמצעית </t>
+  </si>
+  <si>
+    <t>ניקוד כולל מהטלאופ</t>
+  </si>
+  <si>
+    <t>קורלים טלאופ</t>
   </si>
 </sst>
 </file>
@@ -401,7 +715,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,8 +734,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -457,11 +777,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -492,6 +892,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -775,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1857,4 +2306,1063 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7D02CC-7A84-48F1-84B0-63B8E613FA73}">
+  <dimension ref="C2:AF38"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="8.6640625" style="12"/>
+    <col min="4" max="4" width="19.25" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="12"/>
+    <col min="6" max="6" width="27.33203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="25.9140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="26.08203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="25.08203125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="26.6640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="28.1640625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="16.75" style="12" customWidth="1"/>
+    <col min="14" max="15" width="8.6640625" style="12"/>
+    <col min="16" max="16" width="10" style="12" customWidth="1"/>
+    <col min="17" max="19" width="8.6640625" style="12" customWidth="1"/>
+    <col min="20" max="20" width="17.5" style="12" customWidth="1"/>
+    <col min="21" max="23" width="8.6640625" style="12"/>
+    <col min="24" max="24" width="12.25" style="12" customWidth="1"/>
+    <col min="25" max="26" width="8.6640625" style="12"/>
+    <col min="27" max="27" width="14.08203125" style="12" customWidth="1"/>
+    <col min="28" max="28" width="17.6640625" style="12" customWidth="1"/>
+    <col min="29" max="31" width="8.6640625" style="12" customWidth="1"/>
+    <col min="32" max="32" width="21.58203125" style="12" customWidth="1"/>
+    <col min="33" max="35" width="8.6640625" style="12"/>
+    <col min="36" max="36" width="23.75" style="12" customWidth="1"/>
+    <col min="37" max="39" width="8.6640625" style="12"/>
+    <col min="40" max="40" width="19.08203125" style="12" customWidth="1"/>
+    <col min="41" max="43" width="8.6640625" style="12"/>
+    <col min="44" max="44" width="19.75" style="12" customWidth="1"/>
+    <col min="45" max="16384" width="8.6640625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="3:28" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="S3" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="11"/>
+      <c r="W3" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="X3" s="15"/>
+      <c r="AA3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB3" s="15"/>
+    </row>
+    <row r="4" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C4" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+      <c r="S4" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB4" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C5" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X5" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB5" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C6" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="20"/>
+      <c r="S7" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="W7" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="X7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB7" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="19"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="20"/>
+      <c r="S8" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB8" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C9" s="19"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="20"/>
+      <c r="AA9" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB9" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C10" s="19"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="20"/>
+      <c r="AA10" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB10" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C11" s="19"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="20"/>
+      <c r="AA11" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB11" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="3:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="19"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="20"/>
+      <c r="AA12" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB12" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C13" s="19"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="20"/>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C14" s="19"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="20"/>
+    </row>
+    <row r="15" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C15" s="19"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="20"/>
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="C16" s="19"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="20"/>
+    </row>
+    <row r="17" spans="3:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="25"/>
+    </row>
+    <row r="19" spans="3:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="S20" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="T20" s="15"/>
+      <c r="W20" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="X20" s="15"/>
+      <c r="AA20" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="S21" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="T21" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="W21" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="X21" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA21" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB21" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="S22" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W22" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA22" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB22" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S23" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="X23" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA23" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB23" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E24" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="S24" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB24" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="18"/>
+      <c r="S25" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="T25" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA25" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB25" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E26" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E27" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O27" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P27" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E28" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="20"/>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E29" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="20"/>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E30" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="3:28" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="20"/>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E32" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="20"/>
+      <c r="S32" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="T32" s="15"/>
+    </row>
+    <row r="33" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E33" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="20"/>
+      <c r="S33" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="T33" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E34" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="20"/>
+      <c r="S34" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="T34" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E35" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="20"/>
+      <c r="S35" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="T35" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="5:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="20"/>
+      <c r="S36" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="T36" s="25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="E37" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="20"/>
+    </row>
+    <row r="38" spans="5:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="E24:P24"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="C3:P3"/>
+    <mergeCell ref="S3:T3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>